--- a/public/2026 E5 - TS SISR.xlsx
+++ b/public/2026 E5 - TS SISR.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents stage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roblo\Desktop\portfolio\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF8350-6255-4130-A300-76C2691514DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0C463-8B0A-4AB8-8F97-5FC8DB5379C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TUhiJAuqzcWIaCrFBDj4I4GEHtr3UAuKzPhcAiOU/vI="/>
     </ext>
@@ -33,16 +36,10 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Centre de formation :</t>
-  </si>
-  <si>
-    <t>Option : ▢ SISR ▢ SLAM</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>SESSION 2026</t>
+  </si>
+  <si>
+    <t>Option : X SISR ▢ SLAM</t>
+  </si>
+  <si>
+    <t>NOM et prénom : LONGUET Robin</t>
   </si>
 </sst>
 </file>
@@ -671,11 +674,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,26 +707,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,8 +927,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -952,223 +955,223 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="36"/>
+    </row>
+    <row r="4" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="44"/>
-    </row>
-    <row r="4" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+    </row>
+    <row r="5" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-    </row>
-    <row r="5" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="C5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="39" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="39" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="39" t="s">
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="39" t="s">
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40"/>
+    </row>
+    <row r="6" spans="1:26" ht="324.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="39" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="41"/>
-    </row>
-    <row r="6" spans="1:26" ht="324.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="W6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="X6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>36</v>
+      <c r="A7" s="41" t="s">
+        <v>34</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="34"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="43"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
@@ -1453,16 +1456,16 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>37</v>
+      <c r="A18" s="44" t="s">
+        <v>35</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
@@ -1707,16 +1710,16 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>38</v>
+      <c r="A27" s="44" t="s">
+        <v>36</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
@@ -11630,22 +11633,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:X3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:X4"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="U5:X5"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:X3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:X4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
